--- a/Value Affirmation Study Statistics.xlsx
+++ b/Value Affirmation Study Statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter_granville/Desktop/CALL paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5180B0-943C-D343-A0CC-7EE9C1AC7E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7174F46F-F76F-214D-BD25-50C105A7A2F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11760" yWindow="500" windowWidth="16780" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -224,7 +224,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,12 +241,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor theme="0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -335,7 +329,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -365,17 +359,8 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -597,9 +582,9 @@
   </sheetPr>
   <dimension ref="A1:AG1073"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E153" sqref="E153"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F112" sqref="F112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1310,30 +1295,30 @@
       <c r="A25" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="23">
+      <c r="B25" s="8">
         <v>1</v>
       </c>
-      <c r="C25" s="24">
+      <c r="C25" s="10">
         <f>C11/C4</f>
         <v>2.3621177451897606E-2</v>
       </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24">
+      <c r="D25" s="10"/>
+      <c r="E25" s="10">
         <f>E11/E4</f>
         <v>6.0382916053019146E-2</v>
       </c>
-      <c r="F25" s="25"/>
-      <c r="G25" s="24">
+      <c r="F25" s="11"/>
+      <c r="G25" s="10">
         <f>G11/G4</f>
         <v>6.2953995157384993E-2</v>
       </c>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24">
+      <c r="H25" s="10"/>
+      <c r="I25" s="10">
         <f>I11/I4</f>
         <v>3.2985287138111059E-2</v>
       </c>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24">
+      <c r="J25" s="10"/>
+      <c r="K25" s="10">
         <f>K11/K4</f>
         <v>3.0146633224001542E-2</v>
       </c>
@@ -1341,30 +1326,30 @@
     </row>
     <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="19"/>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="24">
+      <c r="C26" s="10">
         <f t="shared" ref="C26:C31" si="0">C12/C5</f>
         <v>0.14049154610423567</v>
       </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24">
+      <c r="D26" s="10"/>
+      <c r="E26" s="10">
         <f t="shared" ref="E26:E31" si="1">E12/E5</f>
         <v>0.31604765241765942</v>
       </c>
-      <c r="F26" s="25"/>
-      <c r="G26" s="24">
+      <c r="F26" s="11"/>
+      <c r="G26" s="10">
         <f t="shared" ref="G26:G31" si="2">G12/G5</f>
         <v>0.21910112359550563</v>
       </c>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24">
+      <c r="H26" s="10"/>
+      <c r="I26" s="10">
         <f t="shared" ref="I26:I31" si="3">I12/I5</f>
         <v>0.12769866789159393</v>
       </c>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24">
+      <c r="J26" s="10"/>
+      <c r="K26" s="10">
         <f t="shared" ref="K26:K31" si="4">K12/K5</f>
         <v>0.10030492697801316</v>
       </c>
@@ -1372,30 +1357,30 @@
     </row>
     <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="19"/>
-      <c r="B27" s="23">
+      <c r="B27" s="8">
         <v>2</v>
       </c>
-      <c r="C27" s="24">
+      <c r="C27" s="10">
         <f t="shared" si="0"/>
         <v>1.742575250416839E-2</v>
       </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24">
+      <c r="D27" s="10"/>
+      <c r="E27" s="10">
         <f t="shared" si="1"/>
         <v>4.1827627547622218E-2</v>
       </c>
-      <c r="F27" s="25"/>
-      <c r="G27" s="24">
+      <c r="F27" s="11"/>
+      <c r="G27" s="10">
         <f t="shared" si="2"/>
         <v>5.4265902924329215E-2</v>
       </c>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24">
+      <c r="H27" s="10"/>
+      <c r="I27" s="10">
         <f t="shared" si="3"/>
         <v>3.8413098236775821E-2</v>
       </c>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24">
+      <c r="J27" s="10"/>
+      <c r="K27" s="10">
         <f t="shared" si="4"/>
         <v>2.6497745329611338E-2</v>
       </c>
@@ -1403,30 +1388,30 @@
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="19"/>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="24">
+      <c r="C28" s="10">
         <f t="shared" si="0"/>
         <v>0.19617083946980854</v>
       </c>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24">
+      <c r="D28" s="10"/>
+      <c r="E28" s="10">
         <f t="shared" si="1"/>
         <v>0.30700778642936594</v>
       </c>
-      <c r="F28" s="25"/>
-      <c r="G28" s="24">
+      <c r="F28" s="11"/>
+      <c r="G28" s="10">
         <f t="shared" si="2"/>
         <v>0.24386503067484663</v>
       </c>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24">
+      <c r="H28" s="10"/>
+      <c r="I28" s="10">
         <f t="shared" si="3"/>
         <v>0.26964560862865949</v>
       </c>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24">
+      <c r="J28" s="10"/>
+      <c r="K28" s="10">
         <f t="shared" si="4"/>
         <v>0.18391188251001336</v>
       </c>
@@ -1434,30 +1419,30 @@
     </row>
     <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="19"/>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29" s="10">
         <f t="shared" si="0"/>
         <v>7.9477640062211813E-4</v>
       </c>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24">
+      <c r="D29" s="10"/>
+      <c r="E29" s="10">
         <f t="shared" si="1"/>
         <v>5.7523463518013929E-3</v>
       </c>
-      <c r="F29" s="25"/>
-      <c r="G29" s="24">
+      <c r="F29" s="11"/>
+      <c r="G29" s="10">
         <f t="shared" si="2"/>
         <v>7.8799249530956857E-3</v>
       </c>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24">
+      <c r="H29" s="10"/>
+      <c r="I29" s="10">
         <f t="shared" si="3"/>
         <v>1.9441069258809235E-3</v>
       </c>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24">
+      <c r="J29" s="10"/>
+      <c r="K29" s="10">
         <f t="shared" si="4"/>
         <v>3.253314930743826E-3</v>
       </c>
@@ -1465,30 +1450,30 @@
     </row>
     <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="19"/>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="24">
+      <c r="C30" s="10">
         <f t="shared" si="0"/>
         <v>1.125121241513094E-2</v>
       </c>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24">
+      <c r="D30" s="10"/>
+      <c r="E30" s="10">
         <f t="shared" si="1"/>
         <v>0.10079575596816977</v>
       </c>
-      <c r="F30" s="25"/>
-      <c r="G30" s="24">
+      <c r="F30" s="11"/>
+      <c r="G30" s="10">
         <f t="shared" si="2"/>
         <v>7.0707070707070704E-2</v>
       </c>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24">
+      <c r="H30" s="10"/>
+      <c r="I30" s="10">
         <f t="shared" si="3"/>
         <v>1.2012012012012012E-2</v>
       </c>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24">
+      <c r="J30" s="10"/>
+      <c r="K30" s="10">
         <f t="shared" si="4"/>
         <v>1.8343524180100056E-2</v>
       </c>
@@ -1496,30 +1481,30 @@
     </row>
     <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="20"/>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="24">
+      <c r="C31" s="10">
         <f t="shared" si="0"/>
         <v>0.11668415529905561</v>
       </c>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24">
+      <c r="D31" s="10"/>
+      <c r="E31" s="10">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="F31" s="25"/>
-      <c r="G31" s="24">
+      <c r="F31" s="11"/>
+      <c r="G31" s="10">
         <f t="shared" si="2"/>
         <v>0.18967334035827185</v>
       </c>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24">
+      <c r="H31" s="10"/>
+      <c r="I31" s="10">
         <f t="shared" si="3"/>
         <v>0.13932242101256187</v>
       </c>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24">
+      <c r="J31" s="10"/>
+      <c r="K31" s="10">
         <f t="shared" si="4"/>
         <v>9.3726264620993469E-2</v>
       </c>
@@ -1713,41 +1698,41 @@
       <c r="A39" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C39" s="26">
-        <v>2.2E-16</v>
-      </c>
-      <c r="D39" s="27" t="str">
+      <c r="C39" s="14">
+        <v>2.2E-16</v>
+      </c>
+      <c r="D39" s="4" t="str">
         <f t="shared" ref="D39:D45" si="5">IF(C39&lt;0.001, "***", IF(C39&lt;0.01, "**", IF(C39&lt;0.05, "*", "")))</f>
         <v>***</v>
       </c>
-      <c r="E39" s="26">
+      <c r="E39" s="14">
         <v>3.0590000000000001E-7</v>
       </c>
-      <c r="F39" s="28" t="str">
+      <c r="F39" s="6" t="str">
         <f t="shared" ref="F39:F45" si="6">IF(E39&lt;0.001, "***", IF(E39&lt;0.01, "**", IF(E39&lt;0.05, "*", "")))</f>
         <v>***</v>
       </c>
-      <c r="G39" s="26">
+      <c r="G39" s="14">
         <v>0.13500000000000001</v>
       </c>
-      <c r="H39" s="27" t="str">
+      <c r="H39" s="4" t="str">
         <f t="shared" ref="H39:H45" si="7">IF(G39&lt;0.001, "***", IF(G39&lt;0.01, "**", IF(G39&lt;0.05, "*", "")))</f>
         <v/>
       </c>
-      <c r="I39" s="26">
+      <c r="I39" s="14">
         <v>5.5899999999999998E-2</v>
       </c>
-      <c r="J39" s="27" t="str">
+      <c r="J39" s="4" t="str">
         <f t="shared" ref="J39:J45" si="8">IF(I39&lt;0.001, "***", IF(I39&lt;0.01, "**", IF(I39&lt;0.05, "*", "")))</f>
         <v/>
       </c>
-      <c r="K39" s="26">
+      <c r="K39" s="14">
         <v>2.2679999999999999E-2</v>
       </c>
-      <c r="L39" s="27" t="str">
+      <c r="L39" s="4" t="str">
         <f t="shared" ref="L39:L45" si="9">IF(K39&lt;0.001, "***", IF(K39&lt;0.01, "**", IF(K39&lt;0.05, "*", "")))</f>
         <v>*</v>
       </c>
@@ -1755,41 +1740,41 @@
     </row>
     <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="19"/>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="26">
-        <v>2.2E-16</v>
-      </c>
-      <c r="D40" s="27" t="str">
+      <c r="C40" s="14">
+        <v>2.2E-16</v>
+      </c>
+      <c r="D40" s="4" t="str">
         <f t="shared" si="5"/>
         <v>***</v>
       </c>
-      <c r="E40" s="26">
-        <v>2.2E-16</v>
-      </c>
-      <c r="F40" s="28" t="str">
+      <c r="E40" s="14">
+        <v>2.2E-16</v>
+      </c>
+      <c r="F40" s="6" t="str">
         <f t="shared" si="6"/>
         <v>***</v>
       </c>
-      <c r="G40" s="26">
-        <v>2.2E-16</v>
-      </c>
-      <c r="H40" s="27" t="str">
+      <c r="G40" s="14">
+        <v>2.2E-16</v>
+      </c>
+      <c r="H40" s="4" t="str">
         <f t="shared" si="7"/>
         <v>***</v>
       </c>
-      <c r="I40" s="26">
-        <v>2.2E-16</v>
-      </c>
-      <c r="J40" s="27" t="str">
+      <c r="I40" s="14">
+        <v>2.2E-16</v>
+      </c>
+      <c r="J40" s="4" t="str">
         <f t="shared" si="8"/>
         <v>***</v>
       </c>
-      <c r="K40" s="26">
-        <v>2.2E-16</v>
-      </c>
-      <c r="L40" s="27" t="str">
+      <c r="K40" s="14">
+        <v>2.2E-16</v>
+      </c>
+      <c r="L40" s="4" t="str">
         <f t="shared" si="9"/>
         <v>***</v>
       </c>
@@ -1797,41 +1782,41 @@
     </row>
     <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="19"/>
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="26">
-        <v>2.2E-16</v>
-      </c>
-      <c r="D41" s="27" t="str">
+      <c r="C41" s="14">
+        <v>2.2E-16</v>
+      </c>
+      <c r="D41" s="4" t="str">
         <f t="shared" si="5"/>
         <v>***</v>
       </c>
-      <c r="E41" s="26">
-        <v>2.2E-16</v>
-      </c>
-      <c r="F41" s="28" t="str">
+      <c r="E41" s="14">
+        <v>2.2E-16</v>
+      </c>
+      <c r="F41" s="6" t="str">
         <f t="shared" si="6"/>
         <v>***</v>
       </c>
-      <c r="G41" s="26">
-        <v>2.2E-16</v>
-      </c>
-      <c r="H41" s="27" t="str">
+      <c r="G41" s="14">
+        <v>2.2E-16</v>
+      </c>
+      <c r="H41" s="4" t="str">
         <f t="shared" si="7"/>
         <v>***</v>
       </c>
-      <c r="I41" s="26">
-        <v>2.2E-16</v>
-      </c>
-      <c r="J41" s="27" t="str">
+      <c r="I41" s="14">
+        <v>2.2E-16</v>
+      </c>
+      <c r="J41" s="4" t="str">
         <f t="shared" si="8"/>
         <v>***</v>
       </c>
-      <c r="K41" s="26">
-        <v>2.2E-16</v>
-      </c>
-      <c r="L41" s="27" t="str">
+      <c r="K41" s="14">
+        <v>2.2E-16</v>
+      </c>
+      <c r="L41" s="4" t="str">
         <f t="shared" si="9"/>
         <v>***</v>
       </c>
@@ -1839,41 +1824,41 @@
     </row>
     <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="19"/>
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="26">
-        <v>2.2E-16</v>
-      </c>
-      <c r="D42" s="27" t="str">
+      <c r="C42" s="14">
+        <v>2.2E-16</v>
+      </c>
+      <c r="D42" s="4" t="str">
         <f t="shared" si="5"/>
         <v>***</v>
       </c>
-      <c r="E42" s="26">
+      <c r="E42" s="14">
         <v>1.0639999999999999E-14</v>
       </c>
-      <c r="F42" s="28" t="str">
+      <c r="F42" s="6" t="str">
         <f t="shared" si="6"/>
         <v>***</v>
       </c>
-      <c r="G42" s="26">
+      <c r="G42" s="14">
         <v>4.972E-10</v>
       </c>
-      <c r="H42" s="27" t="str">
+      <c r="H42" s="4" t="str">
         <f t="shared" si="7"/>
         <v>***</v>
       </c>
-      <c r="I42" s="26">
-        <v>2.2E-16</v>
-      </c>
-      <c r="J42" s="27" t="str">
+      <c r="I42" s="14">
+        <v>2.2E-16</v>
+      </c>
+      <c r="J42" s="4" t="str">
         <f t="shared" si="8"/>
         <v>***</v>
       </c>
-      <c r="K42" s="26">
-        <v>2.2E-16</v>
-      </c>
-      <c r="L42" s="27" t="str">
+      <c r="K42" s="14">
+        <v>2.2E-16</v>
+      </c>
+      <c r="L42" s="4" t="str">
         <f t="shared" si="9"/>
         <v>***</v>
       </c>
@@ -1881,41 +1866,41 @@
     </row>
     <row r="43" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="19"/>
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C43" s="29">
-        <v>2.2E-16</v>
-      </c>
-      <c r="D43" s="27" t="str">
+      <c r="C43" s="15">
+        <v>2.2E-16</v>
+      </c>
+      <c r="D43" s="4" t="str">
         <f t="shared" si="5"/>
         <v>***</v>
       </c>
-      <c r="E43" s="26">
+      <c r="E43" s="14">
         <v>0.68030000000000002</v>
       </c>
-      <c r="F43" s="28" t="str">
+      <c r="F43" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G43" s="26">
+      <c r="G43" s="14">
         <v>0.25950000000000001</v>
       </c>
-      <c r="H43" s="27" t="str">
+      <c r="H43" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I43" s="26">
-        <v>2.2E-16</v>
-      </c>
-      <c r="J43" s="27" t="str">
+      <c r="I43" s="14">
+        <v>2.2E-16</v>
+      </c>
+      <c r="J43" s="4" t="str">
         <f t="shared" si="8"/>
         <v>***</v>
       </c>
-      <c r="K43" s="26">
-        <v>2.2E-16</v>
-      </c>
-      <c r="L43" s="27" t="str">
+      <c r="K43" s="14">
+        <v>2.2E-16</v>
+      </c>
+      <c r="L43" s="4" t="str">
         <f t="shared" si="9"/>
         <v>***</v>
       </c>
@@ -1923,41 +1908,41 @@
     </row>
     <row r="44" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="19"/>
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="29">
-        <v>2.2E-16</v>
-      </c>
-      <c r="D44" s="27" t="str">
+      <c r="C44" s="15">
+        <v>2.2E-16</v>
+      </c>
+      <c r="D44" s="4" t="str">
         <f t="shared" si="5"/>
         <v>***</v>
       </c>
-      <c r="E44" s="26">
-        <v>2.2E-16</v>
-      </c>
-      <c r="F44" s="28" t="str">
+      <c r="E44" s="14">
+        <v>2.2E-16</v>
+      </c>
+      <c r="F44" s="6" t="str">
         <f t="shared" si="6"/>
         <v>***</v>
       </c>
-      <c r="G44" s="26">
+      <c r="G44" s="14">
         <v>1.0670000000000001E-8</v>
       </c>
-      <c r="H44" s="27" t="str">
+      <c r="H44" s="4" t="str">
         <f t="shared" si="7"/>
         <v>***</v>
       </c>
-      <c r="I44" s="26">
-        <v>2.2E-16</v>
-      </c>
-      <c r="J44" s="27" t="str">
+      <c r="I44" s="14">
+        <v>2.2E-16</v>
+      </c>
+      <c r="J44" s="4" t="str">
         <f t="shared" si="8"/>
         <v>***</v>
       </c>
-      <c r="K44" s="26">
-        <v>2.2E-16</v>
-      </c>
-      <c r="L44" s="27" t="str">
+      <c r="K44" s="14">
+        <v>2.2E-16</v>
+      </c>
+      <c r="L44" s="4" t="str">
         <f t="shared" si="9"/>
         <v>***</v>
       </c>
@@ -1965,41 +1950,41 @@
     </row>
     <row r="45" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="20"/>
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C45" s="29">
-        <v>2.2E-16</v>
-      </c>
-      <c r="D45" s="27" t="str">
+      <c r="C45" s="15">
+        <v>2.2E-16</v>
+      </c>
+      <c r="D45" s="4" t="str">
         <f t="shared" si="5"/>
         <v>***</v>
       </c>
-      <c r="E45" s="26">
+      <c r="E45" s="14">
         <v>1.853E-4</v>
       </c>
-      <c r="F45" s="28" t="str">
+      <c r="F45" s="6" t="str">
         <f t="shared" si="6"/>
         <v>***</v>
       </c>
-      <c r="G45" s="26">
+      <c r="G45" s="14">
         <v>0.11459999999999999</v>
       </c>
-      <c r="H45" s="27" t="str">
+      <c r="H45" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I45" s="26">
+      <c r="I45" s="14">
         <v>0.25659999999999999</v>
       </c>
-      <c r="J45" s="27" t="str">
+      <c r="J45" s="4" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K45" s="26">
+      <c r="K45" s="14">
         <v>0.21940000000000001</v>
       </c>
-      <c r="L45" s="27" t="str">
+      <c r="L45" s="4" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -2012,182 +1997,182 @@
       <c r="B46" s="8">
         <v>1</v>
       </c>
-      <c r="C46" s="24">
+      <c r="C46" s="10">
         <v>6.8483290000000002E-2</v>
       </c>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24">
+      <c r="D46" s="10"/>
+      <c r="E46" s="10">
         <v>0.11268549999999999</v>
       </c>
-      <c r="F46" s="25"/>
-      <c r="G46" s="24">
+      <c r="F46" s="11"/>
+      <c r="G46" s="10">
         <v>0.12572710000000001</v>
       </c>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24">
+      <c r="H46" s="10"/>
+      <c r="I46" s="10">
         <v>8.2817399999999999E-2</v>
       </c>
-      <c r="J46" s="24"/>
-      <c r="K46" s="24">
+      <c r="J46" s="10"/>
+      <c r="K46" s="10">
         <v>8.4374249999999998E-2</v>
       </c>
-      <c r="L46" s="24"/>
+      <c r="L46" s="10"/>
     </row>
     <row r="47" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="19"/>
       <c r="B47" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C47" s="24">
+      <c r="C47" s="10">
         <v>0.31573220000000002</v>
       </c>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24">
+      <c r="D47" s="10"/>
+      <c r="E47" s="10">
         <v>0.50909700000000002</v>
       </c>
-      <c r="F47" s="25"/>
-      <c r="G47" s="24">
+      <c r="F47" s="11"/>
+      <c r="G47" s="10">
         <v>0.40906300000000001</v>
       </c>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24">
+      <c r="H47" s="10"/>
+      <c r="I47" s="10">
         <v>0.2947573</v>
       </c>
-      <c r="J47" s="24"/>
-      <c r="K47" s="24">
+      <c r="J47" s="10"/>
+      <c r="K47" s="10">
         <v>0.26296239999999999</v>
       </c>
-      <c r="L47" s="24"/>
+      <c r="L47" s="10"/>
     </row>
     <row r="48" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="19"/>
       <c r="B48" s="8">
         <v>2</v>
       </c>
-      <c r="C48" s="24">
+      <c r="C48" s="10">
         <v>5.697845E-2</v>
       </c>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24">
+      <c r="D48" s="10"/>
+      <c r="E48" s="10">
         <v>8.8033879999999995E-2</v>
       </c>
-      <c r="F48" s="25"/>
-      <c r="G48" s="24">
+      <c r="F48" s="11"/>
+      <c r="G48" s="10">
         <v>0.1248012</v>
       </c>
-      <c r="H48" s="24"/>
-      <c r="I48" s="24">
+      <c r="H48" s="10"/>
+      <c r="I48" s="10">
         <v>8.1650940000000005E-2</v>
       </c>
-      <c r="J48" s="24"/>
-      <c r="K48" s="24">
+      <c r="J48" s="10"/>
+      <c r="K48" s="10">
         <v>7.1984030000000004E-2</v>
       </c>
-      <c r="L48" s="24"/>
+      <c r="L48" s="10"/>
     </row>
     <row r="49" spans="1:12" ht="13" x14ac:dyDescent="0.15">
       <c r="A49" s="19"/>
       <c r="B49" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C49" s="24">
+      <c r="C49" s="10">
         <v>0.41488809999999998</v>
       </c>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24">
+      <c r="D49" s="10"/>
+      <c r="E49" s="10">
         <v>0.53508009999999995</v>
       </c>
-      <c r="F49" s="25"/>
-      <c r="G49" s="24">
+      <c r="F49" s="11"/>
+      <c r="G49" s="10">
         <v>0.52781889999999998</v>
       </c>
-      <c r="H49" s="24"/>
-      <c r="I49" s="24">
+      <c r="H49" s="10"/>
+      <c r="I49" s="10">
         <v>0.46859689999999998</v>
       </c>
-      <c r="J49" s="24"/>
-      <c r="K49" s="24">
+      <c r="J49" s="10"/>
+      <c r="K49" s="10">
         <v>0.4174908</v>
       </c>
-      <c r="L49" s="24"/>
+      <c r="L49" s="10"/>
     </row>
     <row r="50" spans="1:12" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="19"/>
       <c r="B50" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C50" s="24">
+      <c r="C50" s="10">
         <v>2.367762E-2</v>
       </c>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24">
+      <c r="D50" s="10"/>
+      <c r="E50" s="10">
         <v>2.7222730000000001E-2</v>
       </c>
-      <c r="F50" s="25"/>
-      <c r="G50" s="24">
+      <c r="F50" s="11"/>
+      <c r="G50" s="10">
         <v>2.6201720000000001E-2</v>
       </c>
-      <c r="H50" s="24"/>
-      <c r="I50" s="24">
+      <c r="H50" s="10"/>
+      <c r="I50" s="10">
         <v>2.0623490000000001E-2</v>
       </c>
-      <c r="J50" s="24"/>
-      <c r="K50" s="24">
+      <c r="J50" s="10"/>
+      <c r="K50" s="10">
         <v>2.096642E-2</v>
       </c>
-      <c r="L50" s="24"/>
+      <c r="L50" s="10"/>
     </row>
     <row r="51" spans="1:12" ht="13" x14ac:dyDescent="0.15">
       <c r="A51" s="19"/>
       <c r="B51" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C51" s="24">
+      <c r="C51" s="10">
         <v>0.1115907</v>
       </c>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24">
+      <c r="D51" s="10"/>
+      <c r="E51" s="10">
         <v>0.1787995</v>
       </c>
-      <c r="F51" s="25"/>
-      <c r="G51" s="24">
+      <c r="F51" s="11"/>
+      <c r="G51" s="10">
         <v>0.15302450000000001</v>
       </c>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24">
+      <c r="H51" s="10"/>
+      <c r="I51" s="10">
         <v>8.6706110000000003E-2</v>
       </c>
-      <c r="J51" s="24"/>
-      <c r="K51" s="24">
+      <c r="J51" s="10"/>
+      <c r="K51" s="10">
         <v>8.373651E-2</v>
       </c>
-      <c r="L51" s="24"/>
+      <c r="L51" s="10"/>
     </row>
     <row r="52" spans="1:12" ht="13" x14ac:dyDescent="0.15">
       <c r="A52" s="20"/>
       <c r="B52" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C52" s="24">
+      <c r="C52" s="10">
         <v>0.28442810000000002</v>
       </c>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24">
+      <c r="D52" s="10"/>
+      <c r="E52" s="10">
         <v>0.43404989999999999</v>
       </c>
-      <c r="F52" s="25"/>
-      <c r="G52" s="24">
+      <c r="F52" s="11"/>
+      <c r="G52" s="10">
         <v>0.41052290000000002</v>
       </c>
-      <c r="H52" s="24"/>
-      <c r="I52" s="24">
+      <c r="H52" s="10"/>
+      <c r="I52" s="10">
         <v>0.2750939</v>
       </c>
-      <c r="J52" s="24"/>
-      <c r="K52" s="24">
+      <c r="J52" s="10"/>
+      <c r="K52" s="10">
         <v>0.2355825</v>
       </c>
-      <c r="L52" s="24"/>
+      <c r="L52" s="10"/>
     </row>
     <row r="53" spans="1:12" ht="13" x14ac:dyDescent="0.15">
       <c r="A53" s="18" t="s">
@@ -3037,23 +3022,23 @@
       <c r="B81" s="8">
         <v>1</v>
       </c>
-      <c r="C81" s="24">
+      <c r="C81" s="10">
         <v>5.7971710000000003E-2</v>
       </c>
-      <c r="D81" s="24"/>
-      <c r="E81" s="24">
+      <c r="D81" s="10"/>
+      <c r="E81" s="10">
         <v>9.6376130000000004E-2</v>
       </c>
-      <c r="F81" s="25"/>
-      <c r="G81" s="24">
+      <c r="F81" s="11"/>
+      <c r="G81" s="10">
         <v>0.1290916</v>
       </c>
-      <c r="H81" s="24"/>
-      <c r="I81" s="24">
+      <c r="H81" s="10"/>
+      <c r="I81" s="10">
         <v>7.7056810000000003E-2</v>
       </c>
-      <c r="J81" s="24"/>
-      <c r="K81" s="24">
+      <c r="J81" s="10"/>
+      <c r="K81" s="10">
         <v>8.2566310000000004E-2</v>
       </c>
       <c r="L81" s="10"/>
@@ -3063,23 +3048,23 @@
       <c r="B82" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C82" s="24">
+      <c r="C82" s="10">
         <v>0.34117969999999997</v>
       </c>
-      <c r="D82" s="24"/>
-      <c r="E82" s="24">
+      <c r="D82" s="10"/>
+      <c r="E82" s="10">
         <v>0.50035039999999997</v>
       </c>
-      <c r="F82" s="25"/>
-      <c r="G82" s="24">
+      <c r="F82" s="11"/>
+      <c r="G82" s="10">
         <v>0.44830680000000001</v>
       </c>
-      <c r="H82" s="24"/>
-      <c r="I82" s="24">
+      <c r="H82" s="10"/>
+      <c r="I82" s="10">
         <v>0.297877</v>
       </c>
-      <c r="J82" s="24"/>
-      <c r="K82" s="24">
+      <c r="J82" s="10"/>
+      <c r="K82" s="10">
         <v>0.27447199999999999</v>
       </c>
       <c r="L82" s="10"/>
@@ -3089,23 +3074,23 @@
       <c r="B83" s="8">
         <v>2</v>
       </c>
-      <c r="C83" s="24">
+      <c r="C83" s="10">
         <v>4.5673199999999997E-2</v>
       </c>
-      <c r="D83" s="24"/>
-      <c r="E83" s="24">
+      <c r="D83" s="10"/>
+      <c r="E83" s="10">
         <v>7.2917129999999997E-2</v>
       </c>
-      <c r="F83" s="25"/>
-      <c r="G83" s="24">
+      <c r="F83" s="11"/>
+      <c r="G83" s="10">
         <v>0.12797710000000001</v>
       </c>
-      <c r="H83" s="24"/>
-      <c r="I83" s="24">
+      <c r="H83" s="10"/>
+      <c r="I83" s="10">
         <v>7.9892669999999999E-2</v>
       </c>
-      <c r="J83" s="24"/>
-      <c r="K83" s="24">
+      <c r="J83" s="10"/>
+      <c r="K83" s="10">
         <v>7.2495550000000006E-2</v>
       </c>
       <c r="L83" s="10"/>
@@ -3115,23 +3100,23 @@
       <c r="B84" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C84" s="24">
+      <c r="C84" s="10">
         <v>0.4495441</v>
       </c>
-      <c r="D84" s="24"/>
-      <c r="E84" s="24">
+      <c r="D84" s="10"/>
+      <c r="E84" s="10">
         <v>0.51124709999999995</v>
       </c>
-      <c r="F84" s="25"/>
-      <c r="G84" s="24">
+      <c r="F84" s="11"/>
+      <c r="G84" s="10">
         <v>0.53048309999999999</v>
       </c>
-      <c r="H84" s="24"/>
-      <c r="I84" s="24">
+      <c r="H84" s="10"/>
+      <c r="I84" s="10">
         <v>0.49353520000000001</v>
       </c>
-      <c r="J84" s="24"/>
-      <c r="K84" s="24">
+      <c r="J84" s="10"/>
+      <c r="K84" s="10">
         <v>0.43599310000000002</v>
       </c>
       <c r="L84" s="10"/>
@@ -3141,23 +3126,23 @@
       <c r="B85" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C85" s="24">
+      <c r="C85" s="10">
         <v>8.0958869999999995E-3</v>
       </c>
-      <c r="D85" s="24"/>
-      <c r="E85" s="24">
+      <c r="D85" s="10"/>
+      <c r="E85" s="10">
         <v>1.328758E-2</v>
       </c>
-      <c r="F85" s="25"/>
-      <c r="G85" s="24">
+      <c r="F85" s="11"/>
+      <c r="G85" s="10">
         <v>2.9502810000000001E-2</v>
       </c>
-      <c r="H85" s="24"/>
-      <c r="I85" s="24">
+      <c r="H85" s="10"/>
+      <c r="I85" s="10">
         <v>1.4654759999999999E-2</v>
       </c>
-      <c r="J85" s="24"/>
-      <c r="K85" s="24">
+      <c r="J85" s="10"/>
+      <c r="K85" s="10">
         <v>1.8821089999999999E-2</v>
       </c>
       <c r="L85" s="10"/>
@@ -3167,23 +3152,23 @@
       <c r="B86" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C86" s="24">
+      <c r="C86" s="10">
         <v>0.1060551</v>
       </c>
-      <c r="D86" s="24"/>
-      <c r="E86" s="24">
+      <c r="D86" s="10"/>
+      <c r="E86" s="10">
         <v>0.2210433</v>
       </c>
-      <c r="F86" s="25"/>
-      <c r="G86" s="24">
+      <c r="F86" s="11"/>
+      <c r="G86" s="10">
         <v>0.25897870000000001</v>
       </c>
-      <c r="H86" s="24"/>
-      <c r="I86" s="24">
+      <c r="H86" s="10"/>
+      <c r="I86" s="10">
         <v>8.9796319999999999E-2</v>
       </c>
-      <c r="J86" s="24"/>
-      <c r="K86" s="24">
+      <c r="J86" s="10"/>
+      <c r="K86" s="10">
         <v>0.1055161</v>
       </c>
       <c r="L86" s="10"/>
@@ -3193,23 +3178,23 @@
       <c r="B87" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C87" s="24">
+      <c r="C87" s="10">
         <v>0.30210559999999997</v>
       </c>
-      <c r="D87" s="24"/>
-      <c r="E87" s="24">
+      <c r="D87" s="10"/>
+      <c r="E87" s="10">
         <v>0.43157289999999998</v>
       </c>
-      <c r="F87" s="25"/>
-      <c r="G87" s="24">
+      <c r="F87" s="11"/>
+      <c r="G87" s="10">
         <v>0.44551279999999999</v>
       </c>
-      <c r="H87" s="24"/>
-      <c r="I87" s="24">
+      <c r="H87" s="10"/>
+      <c r="I87" s="10">
         <v>0.28930339999999999</v>
       </c>
-      <c r="J87" s="24"/>
-      <c r="K87" s="24">
+      <c r="J87" s="10"/>
+      <c r="K87" s="10">
         <v>0.2560964</v>
       </c>
       <c r="L87" s="10"/>
@@ -3773,38 +3758,38 @@
       <c r="B109" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C109" s="26">
-        <v>2.2E-16</v>
-      </c>
-      <c r="D109" s="27" t="str">
+      <c r="C109" s="14">
+        <v>2.2E-16</v>
+      </c>
+      <c r="D109" s="4" t="str">
         <f t="shared" ref="D109:D115" si="15">IF(C109&lt;0.001, "***", IF(C109&lt;0.01, "**", IF(C109&lt;0.05, "*", "")))</f>
         <v>***</v>
       </c>
-      <c r="E109" s="26">
+      <c r="E109" s="14">
         <v>1.184E-5</v>
       </c>
-      <c r="F109" s="28" t="str">
+      <c r="F109" s="6" t="str">
         <f t="shared" ref="F109:F115" si="16">IF(E109&lt;0.001, "***", IF(E109&lt;0.01, "**", IF(E109&lt;0.05, "*", "")))</f>
         <v>***</v>
       </c>
-      <c r="G109" s="26">
+      <c r="G109" s="14">
         <v>0.91410000000000002</v>
       </c>
-      <c r="H109" s="27" t="str">
+      <c r="H109" s="4" t="str">
         <f t="shared" ref="H109:H115" si="17">IF(G109&lt;0.001, "***", IF(G109&lt;0.01, "**", IF(G109&lt;0.05, "*", "")))</f>
         <v/>
       </c>
-      <c r="I109" s="26">
+      <c r="I109" s="14">
         <v>1.6080000000000001E-2</v>
       </c>
-      <c r="J109" s="27" t="str">
+      <c r="J109" s="4" t="str">
         <f t="shared" ref="J109:J115" si="18">IF(I109&lt;0.001, "***", IF(I109&lt;0.01, "**", IF(I109&lt;0.05, "*", "")))</f>
         <v>*</v>
       </c>
-      <c r="K109" s="26">
+      <c r="K109" s="14">
         <v>2.0150000000000002E-6</v>
       </c>
-      <c r="L109" s="27" t="str">
+      <c r="L109" s="4" t="str">
         <f t="shared" ref="L109:L115" si="19">IF(K109&lt;0.001, "***", IF(K109&lt;0.01, "**", IF(K109&lt;0.05, "*", "")))</f>
         <v>***</v>
       </c>
@@ -3814,38 +3799,38 @@
       <c r="B110" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C110" s="26">
-        <v>2.2E-16</v>
-      </c>
-      <c r="D110" s="27" t="str">
+      <c r="C110" s="14">
+        <v>2.2E-16</v>
+      </c>
+      <c r="D110" s="4" t="str">
         <f t="shared" si="15"/>
         <v>***</v>
       </c>
-      <c r="E110" s="26">
-        <v>2.2E-16</v>
-      </c>
-      <c r="F110" s="28" t="str">
+      <c r="E110" s="14">
+        <v>2.2E-16</v>
+      </c>
+      <c r="F110" s="6" t="str">
         <f t="shared" si="16"/>
         <v>***</v>
       </c>
-      <c r="G110" s="26">
-        <v>2.2E-16</v>
-      </c>
-      <c r="H110" s="27" t="str">
+      <c r="G110" s="14">
+        <v>2.2E-16</v>
+      </c>
+      <c r="H110" s="4" t="str">
         <f t="shared" si="17"/>
         <v>***</v>
       </c>
-      <c r="I110" s="26">
-        <v>2.2E-16</v>
-      </c>
-      <c r="J110" s="27" t="str">
+      <c r="I110" s="14">
+        <v>2.2E-16</v>
+      </c>
+      <c r="J110" s="4" t="str">
         <f t="shared" si="18"/>
         <v>***</v>
       </c>
-      <c r="K110" s="26">
-        <v>2.2E-16</v>
-      </c>
-      <c r="L110" s="27" t="str">
+      <c r="K110" s="14">
+        <v>2.2E-16</v>
+      </c>
+      <c r="L110" s="4" t="str">
         <f t="shared" si="19"/>
         <v>***</v>
       </c>
@@ -3855,38 +3840,38 @@
       <c r="B111" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C111" s="26">
-        <v>2.2E-16</v>
-      </c>
-      <c r="D111" s="27" t="str">
+      <c r="C111" s="14">
+        <v>2.2E-16</v>
+      </c>
+      <c r="D111" s="4" t="str">
         <f t="shared" si="15"/>
         <v>***</v>
       </c>
-      <c r="E111" s="26">
-        <v>2.2E-16</v>
-      </c>
-      <c r="F111" s="28" t="str">
+      <c r="E111" s="14">
+        <v>2.2E-16</v>
+      </c>
+      <c r="F111" s="6" t="str">
         <f t="shared" si="16"/>
         <v>***</v>
       </c>
-      <c r="G111" s="26">
-        <v>2.2E-16</v>
-      </c>
-      <c r="H111" s="27" t="str">
+      <c r="G111" s="14">
+        <v>2.2E-16</v>
+      </c>
+      <c r="H111" s="4" t="str">
         <f t="shared" si="17"/>
         <v>***</v>
       </c>
-      <c r="I111" s="26">
-        <v>2.2E-16</v>
-      </c>
-      <c r="J111" s="27" t="str">
+      <c r="I111" s="14">
+        <v>2.2E-16</v>
+      </c>
+      <c r="J111" s="4" t="str">
         <f t="shared" si="18"/>
         <v>***</v>
       </c>
-      <c r="K111" s="26">
-        <v>2.2E-16</v>
-      </c>
-      <c r="L111" s="27" t="str">
+      <c r="K111" s="14">
+        <v>2.2E-16</v>
+      </c>
+      <c r="L111" s="4" t="str">
         <f t="shared" si="19"/>
         <v>***</v>
       </c>
@@ -3896,38 +3881,38 @@
       <c r="B112" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C112" s="26">
-        <v>2.2E-16</v>
-      </c>
-      <c r="D112" s="27" t="str">
+      <c r="C112" s="14">
+        <v>2.2E-16</v>
+      </c>
+      <c r="D112" s="4" t="str">
         <f t="shared" si="15"/>
         <v>***</v>
       </c>
-      <c r="E112" s="26">
-        <v>2.2E-16</v>
-      </c>
-      <c r="F112" s="28" t="str">
+      <c r="E112" s="14">
+        <v>2.2E-16</v>
+      </c>
+      <c r="F112" s="6" t="str">
         <f t="shared" si="16"/>
         <v>***</v>
       </c>
-      <c r="G112" s="26">
-        <v>2.2E-16</v>
-      </c>
-      <c r="H112" s="27" t="str">
+      <c r="G112" s="14">
+        <v>2.2E-16</v>
+      </c>
+      <c r="H112" s="4" t="str">
         <f t="shared" si="17"/>
         <v>***</v>
       </c>
-      <c r="I112" s="26">
-        <v>2.2E-16</v>
-      </c>
-      <c r="J112" s="27" t="str">
+      <c r="I112" s="14">
+        <v>2.2E-16</v>
+      </c>
+      <c r="J112" s="4" t="str">
         <f t="shared" si="18"/>
         <v>***</v>
       </c>
-      <c r="K112" s="26">
-        <v>2.2E-16</v>
-      </c>
-      <c r="L112" s="27" t="str">
+      <c r="K112" s="14">
+        <v>2.2E-16</v>
+      </c>
+      <c r="L112" s="4" t="str">
         <f t="shared" si="19"/>
         <v>***</v>
       </c>
@@ -3937,38 +3922,38 @@
       <c r="B113" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C113" s="29">
-        <v>2.2E-16</v>
-      </c>
-      <c r="D113" s="27" t="str">
+      <c r="C113" s="15">
+        <v>2.2E-16</v>
+      </c>
+      <c r="D113" s="4" t="str">
         <f t="shared" si="15"/>
         <v>***</v>
       </c>
-      <c r="E113" s="26">
+      <c r="E113" s="14">
         <v>0.114</v>
       </c>
-      <c r="F113" s="28" t="str">
+      <c r="F113" s="6" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G113" s="26">
+      <c r="G113" s="14">
         <v>2.297E-7</v>
       </c>
-      <c r="H113" s="27" t="str">
+      <c r="H113" s="4" t="str">
         <f t="shared" si="17"/>
         <v>***</v>
       </c>
-      <c r="I113" s="26">
-        <v>2.2E-16</v>
-      </c>
-      <c r="J113" s="27" t="str">
+      <c r="I113" s="14">
+        <v>2.2E-16</v>
+      </c>
+      <c r="J113" s="4" t="str">
         <f t="shared" si="18"/>
         <v>***</v>
       </c>
-      <c r="K113" s="26">
-        <v>2.2E-16</v>
-      </c>
-      <c r="L113" s="27" t="str">
+      <c r="K113" s="14">
+        <v>2.2E-16</v>
+      </c>
+      <c r="L113" s="4" t="str">
         <f t="shared" si="19"/>
         <v>***</v>
       </c>
@@ -3978,38 +3963,38 @@
       <c r="B114" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C114" s="29">
-        <v>2.2E-16</v>
-      </c>
-      <c r="D114" s="27" t="str">
+      <c r="C114" s="15">
+        <v>2.2E-16</v>
+      </c>
+      <c r="D114" s="4" t="str">
         <f t="shared" si="15"/>
         <v>***</v>
       </c>
-      <c r="E114" s="26">
-        <v>2.2E-16</v>
-      </c>
-      <c r="F114" s="28" t="str">
+      <c r="E114" s="14">
+        <v>2.2E-16</v>
+      </c>
+      <c r="F114" s="6" t="str">
         <f t="shared" si="16"/>
         <v>***</v>
       </c>
-      <c r="G114" s="26">
-        <v>2.2E-16</v>
-      </c>
-      <c r="H114" s="27" t="str">
+      <c r="G114" s="14">
+        <v>2.2E-16</v>
+      </c>
+      <c r="H114" s="4" t="str">
         <f t="shared" si="17"/>
         <v>***</v>
       </c>
-      <c r="I114" s="26">
-        <v>2.2E-16</v>
-      </c>
-      <c r="J114" s="27" t="str">
+      <c r="I114" s="14">
+        <v>2.2E-16</v>
+      </c>
+      <c r="J114" s="4" t="str">
         <f t="shared" si="18"/>
         <v>***</v>
       </c>
-      <c r="K114" s="26">
-        <v>2.2E-16</v>
-      </c>
-      <c r="L114" s="27" t="str">
+      <c r="K114" s="14">
+        <v>2.2E-16</v>
+      </c>
+      <c r="L114" s="4" t="str">
         <f t="shared" si="19"/>
         <v>***</v>
       </c>
@@ -4019,38 +4004,38 @@
       <c r="B115" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C115" s="29">
-        <v>2.2E-16</v>
-      </c>
-      <c r="D115" s="27" t="str">
+      <c r="C115" s="15">
+        <v>2.2E-16</v>
+      </c>
+      <c r="D115" s="4" t="str">
         <f t="shared" si="15"/>
         <v>***</v>
       </c>
-      <c r="E115" s="26">
+      <c r="E115" s="14">
         <v>4.9520000000000002E-6</v>
       </c>
-      <c r="F115" s="28" t="str">
+      <c r="F115" s="6" t="str">
         <f t="shared" si="16"/>
         <v>***</v>
       </c>
-      <c r="G115" s="26">
+      <c r="G115" s="14">
         <v>0.65329999999999999</v>
       </c>
-      <c r="H115" s="27" t="str">
+      <c r="H115" s="4" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="I115" s="26">
+      <c r="I115" s="14">
         <v>0.20180000000000001</v>
       </c>
-      <c r="J115" s="27" t="str">
+      <c r="J115" s="4" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="K115" s="26">
+      <c r="K115" s="14">
         <v>3.3819999999999998E-5</v>
       </c>
-      <c r="L115" s="27" t="str">
+      <c r="L115" s="4" t="str">
         <f t="shared" si="19"/>
         <v>***</v>
       </c>
@@ -7851,16 +7836,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A4:A10"/>
-    <mergeCell ref="A11:A17"/>
-    <mergeCell ref="A18:A24"/>
-    <mergeCell ref="A25:A31"/>
-    <mergeCell ref="A32:A38"/>
-    <mergeCell ref="A39:A45"/>
-    <mergeCell ref="A46:A52"/>
-    <mergeCell ref="A102:A108"/>
-    <mergeCell ref="A109:A115"/>
-    <mergeCell ref="A116:A122"/>
     <mergeCell ref="A123:A129"/>
     <mergeCell ref="A130:A136"/>
     <mergeCell ref="A137:A143"/>
@@ -7872,6 +7847,16 @@
     <mergeCell ref="A81:A87"/>
     <mergeCell ref="A88:A94"/>
     <mergeCell ref="A95:A101"/>
+    <mergeCell ref="A39:A45"/>
+    <mergeCell ref="A46:A52"/>
+    <mergeCell ref="A102:A108"/>
+    <mergeCell ref="A109:A115"/>
+    <mergeCell ref="A116:A122"/>
+    <mergeCell ref="A4:A10"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="A25:A31"/>
+    <mergeCell ref="A32:A38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
